--- a/ResultadoEleicoesDistritos/AVEIRO_AVEIRO.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_AVEIRO.xlsx
@@ -597,64 +597,64 @@
         <v>21066</v>
       </c>
       <c r="H2" t="n">
-        <v>770</v>
+        <v>744</v>
       </c>
       <c r="I2" t="n">
-        <v>2054</v>
+        <v>2157</v>
       </c>
       <c r="J2" t="n">
-        <v>8686</v>
+        <v>8777</v>
       </c>
       <c r="K2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="L2" t="n">
-        <v>2367</v>
+        <v>2386</v>
       </c>
       <c r="M2" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N2" t="n">
-        <v>1521</v>
+        <v>1606</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
         <v>29</v>
       </c>
       <c r="Q2" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="R2" t="n">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="S2" t="n">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="T2" t="n">
-        <v>1523</v>
+        <v>1573</v>
       </c>
       <c r="U2" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="V2" t="n">
-        <v>13473</v>
+        <v>13252</v>
       </c>
       <c r="W2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X2" t="n">
-        <v>13575</v>
+        <v>13456</v>
       </c>
       <c r="Y2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AA2" t="n">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
